--- a/datasets/exclusion_jan_march_2022.xlsx
+++ b/datasets/exclusion_jan_march_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{3AAC839D-FFB0-495A-B5FD-0F1E7D04FC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E48D22-3E64-4F55-9BF9-627A57DD1A3F}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{3AAC839D-FFB0-495A-B5FD-0F1E7D04FC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E7264B0-8798-4EB6-A30C-5565B82E3668}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$69</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="502">
   <si>
     <t>Refid</t>
   </si>
@@ -1369,24 +1369,6 @@
     <t>1092-1093</t>
   </si>
   <si>
-    <t>32511424</t>
-  </si>
-  <si>
-    <t>Morgado, M. E., Jiang, C., Zambrana, J., Upperman, C. R., Mitchell, C., Boyle, M., Sapkota, A. R., Sapkota, A.</t>
-  </si>
-  <si>
-    <t>Climate change, extreme events, and increased risk of salmonellosis: foodborne diseases active surveillance network (FoodNet), 2004-2014</t>
-  </si>
-  <si>
-    <t>10.1186/s12940-021-00787-y</t>
-  </si>
-  <si>
-    <t>Environmental Health</t>
-  </si>
-  <si>
-    <t>(18 September 2021)</t>
-  </si>
-  <si>
     <t>32511493</t>
   </si>
   <si>
@@ -1474,9 +1456,6 @@
     <t>10.1289/ehp.1306741</t>
   </si>
   <si>
-    <t>32511940</t>
-  </si>
-  <si>
     <t>Quist, Arbor J. L., Holcomb, David A., Fliss, Mike Dolan, Delamater, Paul L., Richardson, David B., Engel, Lawrence S.</t>
   </si>
   <si>
@@ -1493,6 +1472,63 @@
   </si>
   <si>
     <t>Outcome was at the Zip code level, not the individual human level</t>
+  </si>
+  <si>
+    <t>32512035</t>
+  </si>
+  <si>
+    <t>Ayala-Ramirez, Montserrat, MacNell, Nathaniel, McNamee, Lucy E., McGrath, John A., Akhtari, Farida S., Curry, Matthew D., Dunnon, Askia K., Fessler, Michael B., Garantziotis, Stavros, Parks, Christine G., Fargo, David C., Schmitt, Charles P., Motsinger-Reif, Alison A., Hall, Janet E., Miller, Frederick W., Schurman, Shepherd H.</t>
+  </si>
+  <si>
+    <t>Association of distance to swine concentrated animal feeding operations with immune-mediated diseases: An exploratory gene-environment study</t>
+  </si>
+  <si>
+    <t>"we did not consider other determinants of personal exposures, including farm work or other agricultural exposures."</t>
+  </si>
+  <si>
+    <t>32512105</t>
+  </si>
+  <si>
+    <t>Teixeira, J. S., Boras, V. F., Hetman, B. M., Taboada, E. N., Inglis, G. D.</t>
+  </si>
+  <si>
+    <t>Molecular Epidemiological Evidence Implicates Cattle as a Primary Reservoir of Campylobacter jejuni Infecting People via Contaminated Chickens</t>
+  </si>
+  <si>
+    <t>I think people are getting infected in this study through eating contaminated meat, not from living near a CAFO.</t>
+  </si>
+  <si>
+    <t>32512113</t>
+  </si>
+  <si>
+    <t>Holcomb, D. A., Quist, A. J. L., Engel, L. S.</t>
+  </si>
+  <si>
+    <t>Exposure to industrial hog and poultry operations and urinary tractinfections in North Carolina, USA</t>
+  </si>
+  <si>
+    <t>we conducted this analysis at the ZIP code level</t>
+  </si>
+  <si>
+    <t>10.1016/j.envint.2022.107687</t>
+  </si>
+  <si>
+    <t>107687</t>
+  </si>
+  <si>
+    <t>10.3390/pathogens11111366</t>
+  </si>
+  <si>
+    <t>Pathogens</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2022.158749</t>
+  </si>
+  <si>
+    <t>0048-9697</t>
+  </si>
+  <si>
+    <t>Science of the Total Environment</t>
   </si>
 </sst>
 </file>
@@ -1506,12 +1542,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1526,9 +1568,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1843,13 +1890,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1952,27 +2002,27 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>483</v>
+      <c r="A3" s="4">
+        <v>32511940</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -1999,7 +2049,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -2348,7 +2398,7 @@
         <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E11" t="s">
         <v>165</v>
@@ -2642,7 +2692,7 @@
         <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E17" t="s">
         <v>122</v>
@@ -4291,44 +4341,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F52" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52">
-        <v>2</v>
-      </c>
-      <c r="K52" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="I52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4351,8 +4413,11 @@
       <c r="F53" t="s">
         <v>459</v>
       </c>
+      <c r="G53" t="s">
+        <v>460</v>
+      </c>
       <c r="H53" t="s">
-        <v>218</v>
+        <v>461</v>
       </c>
       <c r="I53" t="s">
         <v>23</v>
@@ -4370,45 +4435,33 @@
         <v>24</v>
       </c>
       <c r="N53" t="s">
-        <v>24</v>
-      </c>
-      <c r="O53" t="s">
-        <v>24</v>
-      </c>
-      <c r="P53" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>24</v>
-      </c>
-      <c r="R53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B54" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D54" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E54" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F54" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G54" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H54" t="s">
-        <v>467</v>
+        <v>218</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
@@ -4423,36 +4476,30 @@
         <v>25</v>
       </c>
       <c r="M54" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B55" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C55" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D55" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E55" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F55" t="s">
-        <v>473</v>
-      </c>
-      <c r="G55" t="s">
         <v>474</v>
       </c>
       <c r="H55" t="s">
-        <v>218</v>
+        <v>461</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
@@ -4472,25 +4519,19 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>475</v>
-      </c>
-      <c r="B56" t="s">
-        <v>476</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
-      </c>
-      <c r="D56" t="s">
-        <v>478</v>
-      </c>
-      <c r="E56" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>480</v>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>467</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
         <v>23</v>
@@ -4505,21 +4546,27 @@
         <v>25</v>
       </c>
       <c r="M56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
         <v>22</v>
@@ -4537,30 +4584,30 @@
         <v>25</v>
       </c>
       <c r="M57" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="S57" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
@@ -4575,27 +4622,27 @@
         <v>25</v>
       </c>
       <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
         <v>25</v>
       </c>
       <c r="S58" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H59" t="s">
         <v>37</v>
@@ -4618,25 +4665,25 @@
       <c r="N59" t="s">
         <v>25</v>
       </c>
-      <c r="S59" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
         <v>23</v>
@@ -4645,36 +4692,30 @@
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" t="s">
-        <v>25</v>
-      </c>
-      <c r="M60" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I61" t="s">
         <v>23</v>
@@ -4683,30 +4724,39 @@
         <v>2</v>
       </c>
       <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H62" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
         <v>23</v>
@@ -4721,33 +4771,33 @@
         <v>25</v>
       </c>
       <c r="M62" t="s">
-        <v>24</v>
-      </c>
-      <c r="N62" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="S62" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I63" t="s">
         <v>23</v>
@@ -4763,32 +4813,29 @@
       </c>
       <c r="M63" t="s">
         <v>25</v>
-      </c>
-      <c r="S63" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s">
         <v>23</v>
@@ -4808,22 +4855,22 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E65" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H65" t="s">
         <v>22</v>
@@ -4841,30 +4888,33 @@
         <v>25</v>
       </c>
       <c r="M65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F66" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I66" t="s">
         <v>23</v>
@@ -4882,30 +4932,36 @@
         <v>24</v>
       </c>
       <c r="N66" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="O66" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G67" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H67" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I67" t="s">
         <v>23</v>
@@ -4923,33 +4979,27 @@
         <v>24</v>
       </c>
       <c r="N67" t="s">
-        <v>24</v>
-      </c>
-      <c r="O67" t="s">
-        <v>25</v>
-      </c>
-      <c r="S67" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F68" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G68" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H68" t="s">
         <v>74</v>
@@ -4975,22 +5025,22 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="E69" t="s">
-        <v>136</v>
+        <v>445</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>446</v>
       </c>
       <c r="G69" t="s">
-        <v>138</v>
+        <v>447</v>
       </c>
       <c r="H69" t="s">
         <v>74</v>
@@ -5008,52 +5058,146 @@
         <v>25</v>
       </c>
       <c r="M69" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>442</v>
-      </c>
-      <c r="B70" t="s">
-        <v>443</v>
-      </c>
-      <c r="C70" t="s">
-        <v>444</v>
-      </c>
-      <c r="E70" t="s">
-        <v>445</v>
-      </c>
-      <c r="F70" t="s">
-        <v>446</v>
-      </c>
-      <c r="G70" t="s">
-        <v>447</v>
-      </c>
-      <c r="H70" t="s">
-        <v>74</v>
-      </c>
-      <c r="I70" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70">
-        <v>2</v>
-      </c>
-      <c r="K70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L70" t="s">
-        <v>25</v>
-      </c>
-      <c r="M70" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="3">
+        <v>2</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S61" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>